--- a/biology/Botanique/Forêt_en_Estonie/Forêt_en_Estonie.xlsx
+++ b/biology/Botanique/Forêt_en_Estonie/Forêt_en_Estonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Estonie</t>
+          <t>Forêt_en_Estonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts estoniennes couvraient approximativement 22700 km² en 2003, soit un peu plus de 50 % de la surface du pays. 
 Depuis 1999 seulement, des inventaires forestiers sont dressés pour obtenir des informations sur les forêts au niveau national. Avant cela, les informations étaient plutôt disponibles parcelle par parcelle sans vue d'ensemble. 
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Estonie</t>
+          <t>Forêt_en_Estonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Estonia », dans Forest and Forestry in European Union Countries, par Paavo Kaimre</t>
         </is>
